--- a/biology/Mycologie/Xanthoria_polycarpa/Xanthoria_polycarpa.xlsx
+++ b/biology/Mycologie/Xanthoria_polycarpa/Xanthoria_polycarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polycauliona polycarpa est une espèce de lichens de la famille des Teloschistaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épithète spécifique polycarpa vient du grec poly qui veut dire plusieurs et karpos correspond à un fruit, une fructification ce qui fait référence aux apothécies.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son thalle est de type foliacé, en forme de coussinet de couleur jaune-orangé et presque recouvert de très nombreuses apothécies de couleur orangée à rebord jaune. Son diamètre varie de 1 à 3 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son thalle est de type foliacé, en forme de coussinet de couleur jaune-orangé et presque recouvert de très nombreuses apothécies de couleur orangée à rebord jaune. Son diamètre varie de 1 à 3 cm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On[Qui ?] le retrouve sur les écorces ou les branchettes d’arbres ou encore buissons bien éclairés. Parfois, aussi sur les clôtures de bois. En général, on[Qui ?] les repère dans les zones humides et exposées aux précipitations avec du soleil.
 </t>
@@ -604,9 +622,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce appartient au groupe Eumycètes, et plus précisément à celui des Ascomycètes[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce appartient au groupe Eumycètes, et plus précisément à celui des Ascomycètes.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Polycauliona polycarpa a pour synonymes homotypiques selon MycoBank                                            (7 mars 2021)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Polycauliona polycarpa a pour synonymes homotypiques selon MycoBank                                            (7 mars 2021) :
 Lobaria polycarpa Hoffm., Deutschlands Flora oder botanisches Taschenbuch. Zweyter Theil für das Jahr 1795, Cryptogamie 159 (1796) = basionyme
 Xanthoria polycarpa (Hoffm.) Rieber, Jahrsb. Vaterl. Kult, Wurttemberg: 252 (1891)
 Lichen polycarpus (Hoffm.) Ehrh., Lichenographiae Sueciae Prodromus: 135 (1799)
